--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1465918.57122956</v>
+        <v>-1467868.797058121</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>349.2130258961562</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>349.8866833497258</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>135.5851918345976</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>22.41847570006433</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.6993815150878</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>149.6482469700828</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>152.0172183220756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>122.7321829963533</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>189.2971169515367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>224.6854918269131</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>195.9544420980503</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>55.8364085407088</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.2783941995636</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.7047996847259</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051972</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.71108159480218</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>283.3580910135598</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>61.38835405840639</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79905274948957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>145.1181220076142</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>207.2045317851313</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.6953509624874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.97044518339028</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>26.81610598697736</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>67.84317158411663</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789328984</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378956</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789563</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224542</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4147,7 +4147,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.035245445409</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C2" t="n">
-        <v>974.0727285049977</v>
+        <v>919.0955487044757</v>
       </c>
       <c r="D2" t="n">
-        <v>615.8070298982473</v>
+        <v>560.8298500977252</v>
       </c>
       <c r="E2" t="n">
-        <v>615.8070298982473</v>
+        <v>560.8298500977252</v>
       </c>
       <c r="F2" t="n">
-        <v>204.8211251086398</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>190.8977210472307</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2455.869499040725</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2103.100843770611</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1729.635085509531</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1729.635085509531</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4604,13 +4604,13 @@
         <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2058.628382721103</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2058.628382721103</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="Y5" t="n">
-        <v>1668.489050745291</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
         <v>99.5995062532301</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2585.719988881333</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2585.719988881333</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2331.958203519424</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.958203519424</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2331.958203519424</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.492445258345</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,19 +5051,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1375.001690761342</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.216275550848</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>862.0876367644058</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V13" t="n">
-        <v>862.0876367644058</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W13" t="n">
-        <v>862.0876367644058</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X13" t="n">
-        <v>634.0980858663885</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.3055067228584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>531.109187020113</v>
+        <v>604.1452103957598</v>
       </c>
       <c r="C16" t="n">
-        <v>531.109187020113</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>531.109187020113</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,7 +5461,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
@@ -5470,16 +5470,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>785.7936752259996</v>
       </c>
       <c r="X16" t="n">
-        <v>531.109187020113</v>
+        <v>785.7936752259996</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.109187020113</v>
+        <v>785.7936752259996</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.4452354807079</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1352.33230893405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1128.546893723556</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1128.546893723556</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>873.8624055176685</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W19" t="n">
-        <v>584.4452354807079</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X19" t="n">
-        <v>584.4452354807079</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.4452354807079</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834695</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.9563154684962</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>963.3973594422661</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W22" t="n">
-        <v>963.3973594422661</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X22" t="n">
-        <v>963.3973594422661</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.6047802987359</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6057,28 +6057,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>316.9584588710875</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>672.4909068465487</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186418</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1471.829294813481</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1471.829294813481</v>
+        <v>1430.38781441233</v>
       </c>
       <c r="U25" t="n">
-        <v>1182.700656027039</v>
+        <v>1141.259175625888</v>
       </c>
       <c r="V25" t="n">
-        <v>1182.700656027039</v>
+        <v>886.5746874200013</v>
       </c>
       <c r="W25" t="n">
-        <v>893.2834859900788</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="X25" t="n">
-        <v>893.2834859900788</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y25" t="n">
-        <v>672.4909068465487</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>261.8048459311028</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331627</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,22 +7187,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2446.115379232725</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7491,16 +7491,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
         <v>2016.139981183168</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>29.47535963978194</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>94.13752431970516</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>285.1031356539326</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>124.3400780863225</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.03744927814603</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.23759968302045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.49733361305249</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>56.98936239198567</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>188.3375809297596</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.43826180874018</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>68.936406382012</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2097283888011</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.879261385017514</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8584670402214</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.6349098970796</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>52.80268797598907</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.93311153869672</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>141.4422923613406</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>132.6142081687045</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>171.1047039966259</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>153.7043894742726</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1267681.424025523</v>
+        <v>1267681.424025524</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770925</v>
+        <v>96832.57803770932</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,22 +26320,22 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="G2" t="n">
         <v>97757.26493442722</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442716</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442718</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963056</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>121444.2179016484</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007561</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007566</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.5188973279</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="K4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="L4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-697438.5971418931</v>
+        <v>-697554.5500057995</v>
       </c>
       <c r="C6" t="n">
         <v>-128145.9055462949</v>
@@ -26528,34 +26528,34 @@
         <v>-128145.9055462949</v>
       </c>
       <c r="E6" t="n">
-        <v>-527306.8291471929</v>
+        <v>-527404.2882731651</v>
       </c>
       <c r="F6" t="n">
-        <v>-2146.792670296883</v>
+        <v>-2244.25179626912</v>
       </c>
       <c r="G6" t="n">
-        <v>-2146.792670296913</v>
+        <v>-2244.251796269048</v>
       </c>
       <c r="H6" t="n">
-        <v>-2146.792670296898</v>
+        <v>-2244.25179626912</v>
       </c>
       <c r="I6" t="n">
-        <v>-2146.792670296869</v>
+        <v>-2244.251796269208</v>
       </c>
       <c r="J6" t="n">
-        <v>-256349.1347806234</v>
+        <v>-256349.1347806233</v>
       </c>
       <c r="K6" t="n">
-        <v>-25420.40348431765</v>
+        <v>-25420.40348431778</v>
       </c>
       <c r="L6" t="n">
+        <v>-25420.40348431778</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-160221.418718155</v>
+      </c>
+      <c r="N6" t="n">
         <v>-25420.40348431775</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-160221.4187181548</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-25420.40348431777</v>
       </c>
       <c r="O6" t="n">
         <v>-79925.9155880303</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.1318901296406</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16.05986587485137</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>305.3337827700706</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>197.2237503953374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>246.9989176821157</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>62.84052637229129</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>61.83750650967795</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>186.7793995654303</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>118.5793042682627</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>1.968426899064241</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>91.81819865186512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.688249540165998e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35583,7 +35583,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117992</v>
       </c>
       <c r="Q13" t="n">
         <v>39.22569997187475</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>546.454964578676</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>180.0507982277212</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>427.3320977177181</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>166.2502570412292</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>429.232022676159</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.2506324680946</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>356.012295623815</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445772</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
